--- a/data/new.xlsx
+++ b/data/new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RIQQI\SERVER\htdocs\motorKawanku\motorkawanku\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC7B498-B004-4884-9681-17E2D79EA734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6855B7F6-62DA-476C-BCCC-9FA3F9E95100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rtAkhir" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="64">
   <si>
     <t>kawasan</t>
   </si>
@@ -209,6 +209,9 @@
     <t>kontribusiPenanganan</t>
   </si>
   <si>
+    <t>KR</t>
+  </si>
+  <si>
     <t>TK</t>
   </si>
 </sst>
@@ -225,18 +228,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,9 +248,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,219 +589,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ13"/>
+  <dimension ref="A1:BJ31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BJ21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="BH1:BJ1 A1:C1 D1:BF1" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1:BG1048576"/>
     </sheetView>
   </sheetViews>
@@ -1001,19 +787,22 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>149</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>0.72077922077922074</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1025,160 +814,160 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K2">
-        <v>3.2467532467532464E-2</v>
+        <v>0.28767123287671231</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.25108225108225107</v>
+        <v>0.13242009132420091</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1550</v>
+      </c>
+      <c r="R2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="U2">
+        <v>33</v>
+      </c>
+      <c r="V2">
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="AB2">
+        <v>0.55834600000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.33129458283343599</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
         <v>200</v>
       </c>
-      <c r="O2">
-        <v>0.1029336078229542</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>893</v>
-      </c>
-      <c r="R2">
-        <v>0.45959855892949047</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0.28126608337622233</v>
-      </c>
-      <c r="U2">
-        <v>11</v>
-      </c>
-      <c r="V2">
-        <v>5.1162790697674418E-2</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>2.5581395348837209E-2</v>
-      </c>
-      <c r="AB2">
-        <v>1.1644550000000002</v>
-      </c>
-      <c r="AC2">
-        <v>0.41154745348485849</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>732</v>
-      </c>
       <c r="AF2">
-        <v>0.70930232558139539</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.14534883720930233</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.42206620542518541</v>
+        <v>0.44376486094447865</v>
       </c>
       <c r="AL2">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.53488372093023251</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.46744186046511627</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="AT2">
-        <v>0.15348837209302327</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.20465116279069767</v>
+        <v>0</v>
       </c>
       <c r="AX2">
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.17906976744186048</v>
+        <v>0.5</v>
       </c>
       <c r="AZ2">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="BA2">
-        <v>0.20779220779220781</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC2">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="BD2">
-        <v>0.35064935064935066</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF2">
-        <v>0.27922077922077926</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="BH2" t="s">
         <v>62</v>
       </c>
       <c r="BI2">
-        <v>0.27224690605146457</v>
+        <v>0.38217477340102018</v>
       </c>
       <c r="BJ2">
         <v>0</v>
@@ -1186,19 +975,22 @@
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>0.72077922077922074</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1210,43 +1002,43 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3.2467532467532464E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.25108225108225107</v>
+        <v>0.34042553191489361</v>
       </c>
       <c r="N3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1029336078229542</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>893</v>
+        <v>300</v>
       </c>
       <c r="R3">
-        <v>0.45959855892949047</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>0.28126608337622233</v>
+        <v>0.5</v>
       </c>
       <c r="U3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>5.1162790697674418E-2</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1261,109 +1053,109 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>2.5581395348837209E-2</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.1644550000000002</v>
+        <v>1.1735370000000001</v>
       </c>
       <c r="AC3">
-        <v>0.41154745348485849</v>
+        <v>0.8606565131712598</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE3">
-        <v>732</v>
+        <v>100</v>
       </c>
       <c r="AF3">
-        <v>0.70930232558139539</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.14534883720930233</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.42206620542518541</v>
+        <v>0.6202188377237533</v>
       </c>
       <c r="AL3">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.53488372093023251</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.46744186046511627</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.15348837209302327</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.20465116279069767</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.17906976744186048</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.20779220779220781</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BD3">
-        <v>0.35064935064935066</v>
+        <v>1</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF3">
-        <v>0.27922077922077926</v>
+        <v>0.5</v>
       </c>
       <c r="BG3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="BH3" t="s">
         <v>62</v>
       </c>
       <c r="BI3">
-        <v>0.27224690605146457</v>
+        <v>0.28009205280552102</v>
       </c>
       <c r="BJ3">
         <v>0</v>
@@ -1371,70 +1163,73 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>151</v>
       </c>
       <c r="C4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>0.72077922077922074</v>
+        <v>0.42528735632183906</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
       <c r="K4">
-        <v>3.2467532467532464E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.25108225108225107</v>
+        <v>0.1532567049808429</v>
       </c>
       <c r="N4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1029336078229542</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>893</v>
+        <v>35</v>
       </c>
       <c r="R4">
-        <v>0.45959855892949047</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.28126608337622233</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="U4">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="V4">
-        <v>5.1162790697674418E-2</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1446,129 +1241,132 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.5581395348837209E-2</v>
+        <v>0.5</v>
       </c>
       <c r="AB4">
-        <v>1.1644550000000002</v>
+        <v>4.500000000007276E-5</v>
       </c>
       <c r="AC4">
-        <v>0.41154745348485849</v>
+        <v>1.2675895657681173E-5</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>732</v>
+        <v>1025</v>
       </c>
       <c r="AF4">
-        <v>0.70930232558139539</v>
+        <v>0.48578199052132703</v>
       </c>
       <c r="AG4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>150</v>
+        <v>960</v>
       </c>
       <c r="AI4">
-        <v>0.14534883720930233</v>
+        <v>0.45497630331753552</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.42206620542518541</v>
+        <v>0.3135903232448401</v>
       </c>
       <c r="AL4">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="AS4">
         <v>115</v>
       </c>
-      <c r="AP4">
-        <v>0.53488372093023251</v>
-      </c>
-      <c r="AQ4">
-        <v>3</v>
-      </c>
-      <c r="AR4">
-        <v>0.46744186046511627</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.20779220779220781</v>
+        <v>0</v>
       </c>
       <c r="BB4">
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="BD4">
-        <v>0.35064935064935066</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF4">
-        <v>0.27922077922077926</v>
+        <v>0.5</v>
       </c>
       <c r="BG4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BH4" t="s">
         <v>62</v>
       </c>
       <c r="BI4">
-        <v>0.24666551070262738</v>
+        <v>0.35595310180823719</v>
       </c>
       <c r="BJ4">
-        <v>9.3963952501268738E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>152</v>
       </c>
       <c r="C5">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>0.39610389610389612</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1580,43 +1378,43 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3.2467532467532464E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.14285714285714288</v>
+        <v>0.33928571428571425</v>
       </c>
       <c r="N5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1029336078229542</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>743</v>
+        <v>350</v>
       </c>
       <c r="R5">
-        <v>0.38239835306227482</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>0.2426659804426145</v>
+        <v>0.5</v>
       </c>
       <c r="U5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>5.1162790697674418E-2</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1631,58 +1429,58 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>2.5581395348837209E-2</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.1644550000000002</v>
+        <v>0.33980199999999999</v>
       </c>
       <c r="AC5">
-        <v>0.41154745348485849</v>
+        <v>0.42221813564081601</v>
       </c>
       <c r="AD5">
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>732</v>
+        <v>150</v>
       </c>
       <c r="AF5">
-        <v>0.70930232558139539</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AG5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AI5">
-        <v>0.14534883720930233</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.42206620542518541</v>
+        <v>0.37883461664217677</v>
       </c>
       <c r="AL5">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.53488372093023251</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.46744186046511627</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -1706,54 +1504,57 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="BA5">
-        <v>0.20779220779220781</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BD5">
-        <v>0.35064935064935066</v>
+        <v>1</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF5">
-        <v>0.27922077922077926</v>
+        <v>1</v>
       </c>
       <c r="BG5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="BH5" t="s">
         <v>62</v>
       </c>
       <c r="BI5">
-        <v>0.22569048053709651</v>
+        <v>0.31687433298969875</v>
       </c>
       <c r="BJ5">
-        <v>8.5034304576198927E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>153</v>
       </c>
       <c r="C6">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>0.18181818181818182</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1765,43 +1566,43 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>3.2467532467532464E-2</v>
+        <v>0.375</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>7.1428571428571438E-2</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1029336078229542</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.38239835306227482</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.2426659804426145</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>5.1162790697674418E-2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1816,118 +1617,5021 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.5581395348837209E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.1644550000000002</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.41154745348485849</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>732</v>
+        <v>121</v>
       </c>
       <c r="AF6">
-        <v>0.70930232558139539</v>
+        <v>0.61734693877551017</v>
       </c>
       <c r="AG6">
         <v>3</v>
       </c>
       <c r="AH6">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AI6">
-        <v>0.14534883720930233</v>
+        <v>0.38265306122448978</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.42206620542518541</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AL6">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="AM6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AN6">
         <v>1</v>
       </c>
       <c r="AO6">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.53488372093023251</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.46744186046511627</v>
+        <v>0.125</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ6">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="BA6">
-        <v>0.20779220779220781</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC6">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="BD6">
-        <v>0.35064935064935066</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF6">
-        <v>0.27922077922077926</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="BH6" t="s">
         <v>62</v>
       </c>
       <c r="BI6">
-        <v>0.21548639890444346</v>
+        <v>0.40773809523809523</v>
       </c>
       <c r="BJ6">
-        <v>4.521272500448157E-2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>154</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.4800000000000377E-3</v>
+      </c>
+      <c r="AC7">
+        <v>2.062404364313783E-3</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>25</v>
+      </c>
+      <c r="AI7">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>4.8306515740485549E-2</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>38</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>38</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>29</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>5</v>
+      </c>
+      <c r="BF7">
+        <v>0.5</v>
+      </c>
+      <c r="BG7">
+        <v>20</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI7">
+        <v>0.27796652584210724</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>149</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.28767123287671231</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.13242009132420091</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1550</v>
+      </c>
+      <c r="R8">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="U8">
+        <v>33</v>
+      </c>
+      <c r="V8">
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="AB8">
+        <v>0.55834600000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0.33129458283343599</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>200</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>5</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0.44376486094447865</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>78</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0.5</v>
+      </c>
+      <c r="AZ8">
+        <v>73</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>5</v>
+      </c>
+      <c r="BC8">
+        <v>73</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>5</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>28</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI8">
+        <v>0.38217477340102018</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>300</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1.1735370000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.8606565131712598</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>100</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0.6202188377237533</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>47</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>5</v>
+      </c>
+      <c r="BF9">
+        <v>0.5</v>
+      </c>
+      <c r="BG9">
+        <v>25</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI9">
+        <v>0.28009205280552102</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>151</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>0.42528735632183906</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.1532567049808429</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>35</v>
+      </c>
+      <c r="R10">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="U10">
+        <v>115</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0.5</v>
+      </c>
+      <c r="AB10">
+        <v>4.500000000007276E-5</v>
+      </c>
+      <c r="AC10">
+        <v>1.2675895657681173E-5</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1025</v>
+      </c>
+      <c r="AF10">
+        <v>0.48578199052132703</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>960</v>
+      </c>
+      <c r="AI10">
+        <v>0.45497630331753552</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0.3135903232448401</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>2</v>
+      </c>
+      <c r="AP10">
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="AS10">
+        <v>115</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>5</v>
+      </c>
+      <c r="AV10">
+        <v>115</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>5</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>87</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>5</v>
+      </c>
+      <c r="BF10">
+        <v>0.5</v>
+      </c>
+      <c r="BG10">
+        <v>23</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI10">
+        <v>0.35595310180823719</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>152</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.33928571428571425</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>350</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.33980199999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.42221813564081601</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>150</v>
+      </c>
+      <c r="AF11">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>100</v>
+      </c>
+      <c r="AI11">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0.37883461664217677</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>56</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>5</v>
+      </c>
+      <c r="BC11">
+        <v>56</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>5</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>23</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI11">
+        <v>0.31687433298969875</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>153</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>0.375</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>121</v>
+      </c>
+      <c r="AF12">
+        <v>0.61734693877551017</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <v>75</v>
+      </c>
+      <c r="AI12">
+        <v>0.38265306122448978</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+      <c r="AM12">
+        <v>0.25</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0.125</v>
+      </c>
+      <c r="AS12">
+        <v>8</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>5</v>
+      </c>
+      <c r="AV12">
+        <v>7</v>
+      </c>
+      <c r="AW12">
+        <v>0.875</v>
+      </c>
+      <c r="AX12">
+        <v>5</v>
+      </c>
+      <c r="AY12">
+        <v>0.9375</v>
+      </c>
+      <c r="AZ12">
+        <v>8</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>5</v>
+      </c>
+      <c r="BC12">
+        <v>8</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>5</v>
+      </c>
+      <c r="BF12">
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <v>31</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI12">
+        <v>0.40773809523809523</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>154</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AB13">
+        <v>2.4800000000000377E-3</v>
+      </c>
+      <c r="AC13">
+        <v>2.062404364313783E-3</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>25</v>
+      </c>
+      <c r="AI13">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>4.8306515740485549E-2</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>38</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>38</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>5</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>29</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>5</v>
+      </c>
+      <c r="BF13">
+        <v>0.5</v>
+      </c>
+      <c r="BG13">
+        <v>20</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI13">
+        <v>0.27796652584210724</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>149</v>
+      </c>
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>0.28767123287671231</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.13242009132420091</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1550</v>
+      </c>
+      <c r="R14">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="U14">
+        <v>33</v>
+      </c>
+      <c r="V14">
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="AB14">
+        <v>0.55834600000000001</v>
+      </c>
+      <c r="AC14">
+        <v>0.33129458283343599</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>200</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>5</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0.44376486094447865</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>78</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0.5</v>
+      </c>
+      <c r="AZ14">
+        <v>73</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>5</v>
+      </c>
+      <c r="BC14">
+        <v>73</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>5</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>28</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI14">
+        <v>0.38217477340102018</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="D15">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>300</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1.1735370000000001</v>
+      </c>
+      <c r="AC15">
+        <v>0.8606565131712598</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AE15">
+        <v>100</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>5</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0.6202188377237533</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>47</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>5</v>
+      </c>
+      <c r="BF15">
+        <v>0.5</v>
+      </c>
+      <c r="BG15">
+        <v>25</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI15">
+        <v>0.28009205280552102</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>151</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>0.42528735632183906</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.1532567049808429</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>35</v>
+      </c>
+      <c r="R16">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="U16">
+        <v>115</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0.5</v>
+      </c>
+      <c r="AB16">
+        <v>4.500000000007276E-5</v>
+      </c>
+      <c r="AC16">
+        <v>1.2675895657681173E-5</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1025</v>
+      </c>
+      <c r="AF16">
+        <v>0.48578199052132703</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>960</v>
+      </c>
+      <c r="AI16">
+        <v>0.45497630331753552</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0.3135903232448401</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>2</v>
+      </c>
+      <c r="AP16">
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>87</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>5</v>
+      </c>
+      <c r="BF16">
+        <v>0.5</v>
+      </c>
+      <c r="BG16">
+        <v>13</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI16">
+        <v>0.21309595895109434</v>
+      </c>
+      <c r="BJ16">
+        <v>0.40133697987580497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>152</v>
+      </c>
+      <c r="C17">
+        <v>2021</v>
+      </c>
+      <c r="D17">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.33928571428571425</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>350</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0.33980199999999999</v>
+      </c>
+      <c r="AC17">
+        <v>0.42221813564081601</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>150</v>
+      </c>
+      <c r="AF17">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>100</v>
+      </c>
+      <c r="AI17">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0.37883461664217677</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>56</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>5</v>
+      </c>
+      <c r="BC17">
+        <v>56</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>5</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>23</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI17">
+        <v>0.31687433298969875</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>153</v>
+      </c>
+      <c r="C18">
+        <v>2021</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>0.375</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>121</v>
+      </c>
+      <c r="AF18">
+        <v>0.61734693877551017</v>
+      </c>
+      <c r="AG18">
+        <v>3</v>
+      </c>
+      <c r="AH18">
+        <v>75</v>
+      </c>
+      <c r="AI18">
+        <v>0.38265306122448978</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>0.25</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0.125</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>0.125</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AZ18">
+        <v>8</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>5</v>
+      </c>
+      <c r="BC18">
+        <v>8</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>5</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
+      </c>
+      <c r="BG18">
+        <v>21</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI18">
+        <v>0.28273809523809523</v>
+      </c>
+      <c r="BJ18">
+        <v>0.30656934306569344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>154</v>
+      </c>
+      <c r="C19">
+        <v>2021</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AB19">
+        <v>2.4800000000000377E-3</v>
+      </c>
+      <c r="AC19">
+        <v>2.062404364313783E-3</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>25</v>
+      </c>
+      <c r="AI19">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>4.8306515740485549E-2</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>29</v>
+      </c>
+      <c r="BD19">
+        <v>1</v>
+      </c>
+      <c r="BE19">
+        <v>5</v>
+      </c>
+      <c r="BF19">
+        <v>0.5</v>
+      </c>
+      <c r="BG19">
+        <v>10</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI19">
+        <v>0.13510938298496436</v>
+      </c>
+      <c r="BJ19">
+        <v>0.51393649801663432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>149</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>0.28767123287671231</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.13242009132420091</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1550</v>
+      </c>
+      <c r="R20">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="U20">
+        <v>33</v>
+      </c>
+      <c r="V20">
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="AB20">
+        <v>0.55834600000000001</v>
+      </c>
+      <c r="AC20">
+        <v>0.33129458283343599</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>200</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>5</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0.44376486094447865</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>78</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>5</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0.5</v>
+      </c>
+      <c r="AZ20">
+        <v>73</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>5</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0.5</v>
+      </c>
+      <c r="BG20">
+        <v>23</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI20">
+        <v>0.31074620197244879</v>
+      </c>
+      <c r="BJ20">
+        <v>0.18690027809245435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>60</v>
+      </c>
+      <c r="R21">
+        <v>0.2</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0.1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1.1735370000000001</v>
+      </c>
+      <c r="AC21">
+        <v>0.8606565131712598</v>
+      </c>
+      <c r="AD21">
+        <v>5</v>
+      </c>
+      <c r="AE21">
+        <v>100</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>5</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0.6202188377237533</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>47</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>5</v>
+      </c>
+      <c r="BF21">
+        <v>0.5</v>
+      </c>
+      <c r="BG21">
+        <v>15</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI21">
+        <v>0.17533014804361624</v>
+      </c>
+      <c r="BJ21">
+        <v>0.37402669484037487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>151</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>0.42528735632183906</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.1532567049808429</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>35</v>
+      </c>
+      <c r="R22">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="U22">
+        <v>115</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0.5</v>
+      </c>
+      <c r="AB22">
+        <v>4.500000000007276E-5</v>
+      </c>
+      <c r="AC22">
+        <v>1.2675895657681173E-5</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1025</v>
+      </c>
+      <c r="AF22">
+        <v>0.48578199052132703</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>760</v>
+      </c>
+      <c r="AI22">
+        <v>0.36018957345971564</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0.28199474662556678</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22">
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>87</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>5</v>
+      </c>
+      <c r="BF22">
+        <v>0.5</v>
+      </c>
+      <c r="BG22">
+        <v>13</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI22">
+        <v>0.20858230514834103</v>
+      </c>
+      <c r="BJ22">
+        <v>2.1181320495097709E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>152</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.33928571428571425</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>350</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0.33980199999999999</v>
+      </c>
+      <c r="AC23">
+        <v>0.42221813564081601</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>150</v>
+      </c>
+      <c r="AF23">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>100</v>
+      </c>
+      <c r="AI23">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>0.37883461664217677</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>56</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>5</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0.5</v>
+      </c>
+      <c r="BG23">
+        <v>18</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI23">
+        <v>0.24544576156112727</v>
+      </c>
+      <c r="BJ23">
+        <v>0.2254160845236195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>0.375</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>121</v>
+      </c>
+      <c r="AF24">
+        <v>0.61734693877551017</v>
+      </c>
+      <c r="AG24">
+        <v>3</v>
+      </c>
+      <c r="AH24">
+        <v>75</v>
+      </c>
+      <c r="AI24">
+        <v>0.38265306122448978</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL24">
+        <v>2</v>
+      </c>
+      <c r="AM24">
+        <v>0.25</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0.125</v>
+      </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>0.125</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AZ24">
+        <v>8</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>5</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0.5</v>
+      </c>
+      <c r="BG24">
+        <v>16</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI24">
+        <v>0.21130952380952378</v>
+      </c>
+      <c r="BJ24">
+        <v>0.25263157894736848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>154</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AB25">
+        <v>2.4800000000000377E-3</v>
+      </c>
+      <c r="AC25">
+        <v>2.062404364313783E-3</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>25</v>
+      </c>
+      <c r="AI25">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>4.8306515740485549E-2</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>5</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI25">
+        <v>6.3680811556392936E-2</v>
+      </c>
+      <c r="BJ25">
+        <v>0.52867217546630607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>149</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>0.28767123287671231</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.13242009132420091</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1550</v>
+      </c>
+      <c r="R26">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="U26">
+        <v>33</v>
+      </c>
+      <c r="V26">
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="AB26">
+        <v>0.55834600000000001</v>
+      </c>
+      <c r="AC26">
+        <v>0.33129458283343599</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>200</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>5</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0.44376486094447865</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>78</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0.5</v>
+      </c>
+      <c r="AZ26">
+        <v>73</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>5</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0.5</v>
+      </c>
+      <c r="BG26">
+        <v>23</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI26">
+        <v>0.31074620197244879</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>150</v>
+      </c>
+      <c r="C27">
+        <v>2023</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>60</v>
+      </c>
+      <c r="R27">
+        <v>0.2</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0.1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>1.1735370000000001</v>
+      </c>
+      <c r="AC27">
+        <v>0.8606565131712598</v>
+      </c>
+      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AE27">
+        <v>100</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>5</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0.6202188377237533</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>47</v>
+      </c>
+      <c r="BD27">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>5</v>
+      </c>
+      <c r="BF27">
+        <v>0.5</v>
+      </c>
+      <c r="BG27">
+        <v>15</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI27">
+        <v>0.17533014804361624</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>151</v>
+      </c>
+      <c r="C28">
+        <v>2023</v>
+      </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>0.42528735632183906</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0.1532567049808429</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>35</v>
+      </c>
+      <c r="R28">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="U28">
+        <v>115</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>5</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0.5</v>
+      </c>
+      <c r="AB28">
+        <v>4.500000000007276E-5</v>
+      </c>
+      <c r="AC28">
+        <v>1.2675895657681173E-5</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1025</v>
+      </c>
+      <c r="AF28">
+        <v>0.48578199052132703</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>760</v>
+      </c>
+      <c r="AI28">
+        <v>0.36018957345971564</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>0.28199474662556678</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>2</v>
+      </c>
+      <c r="AP28">
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>87</v>
+      </c>
+      <c r="BD28">
+        <v>1</v>
+      </c>
+      <c r="BE28">
+        <v>5</v>
+      </c>
+      <c r="BF28">
+        <v>0.5</v>
+      </c>
+      <c r="BG28">
+        <v>13</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI28">
+        <v>0.20858230514834103</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>152</v>
+      </c>
+      <c r="C29">
+        <v>2023</v>
+      </c>
+      <c r="D29">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0.33928571428571425</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>350</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0.33980199999999999</v>
+      </c>
+      <c r="AC29">
+        <v>0.42221813564081601</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>150</v>
+      </c>
+      <c r="AF29">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>100</v>
+      </c>
+      <c r="AI29">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>0.37883461664217677</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>56</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0.5</v>
+      </c>
+      <c r="BG29">
+        <v>18</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI29">
+        <v>0.24544576156112727</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>153</v>
+      </c>
+      <c r="C30">
+        <v>2023</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>0.375</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>121</v>
+      </c>
+      <c r="AF30">
+        <v>0.61734693877551017</v>
+      </c>
+      <c r="AG30">
+        <v>3</v>
+      </c>
+      <c r="AH30">
+        <v>75</v>
+      </c>
+      <c r="AI30">
+        <v>0.38265306122448978</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>0.125</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AZ30">
+        <v>8</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0.5</v>
+      </c>
+      <c r="BG30">
+        <v>15</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI30">
+        <v>0.19345238095238093</v>
+      </c>
+      <c r="BJ30">
+        <v>8.4507042253521097E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>154</v>
+      </c>
+      <c r="C31">
+        <v>2023</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AB31">
+        <v>2.4800000000000377E-3</v>
+      </c>
+      <c r="AC31">
+        <v>2.062404364313783E-3</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>25</v>
+      </c>
+      <c r="AI31">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>4.8306515740485549E-2</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>5</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI31">
+        <v>6.3680811556392936E-2</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="BH1:BJ6 A1:C6 D1:BF6" numberStoredAsText="1"/>
+    <ignoredError sqref="BH1:BJ31 A1:C31 D1:BF31" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BI1"/>
+  <sheetViews>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BI2" sqref="A2:BI6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="BG1:BI1 A1:B1 C1:BE1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>